--- a/full digest of author contacts _ macsave.xlsx
+++ b/full digest of author contacts _ macsave.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\GitHub\lost-forgotten-interviews\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amcga\GitHub\lost-forgotten-interviews\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E34F4B92-C90B-4AA6-B233-B26DC40D60B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A010AB3C-9EEA-4506-B3CB-2CC9C5F08319}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="330" yWindow="1110" windowWidth="13710" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="75" yWindow="1695" windowWidth="24795" windowHeight="13560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="262">
   <si>
     <t>Discipline</t>
   </si>
@@ -803,12 +803,179 @@
   <si>
     <t>U of Georgia</t>
   </si>
+  <si>
+    <t>Michael Hout</t>
+  </si>
+  <si>
+    <t>Puck Building, Room 4139</t>
+  </si>
+  <si>
+    <t>mikehout@nyu.edu</t>
+  </si>
+  <si>
+    <t>New York City</t>
+  </si>
+  <si>
+    <t>on leave Winter 2021</t>
+  </si>
+  <si>
+    <t>Linda Waite</t>
+  </si>
+  <si>
+    <t>773-256-6333</t>
+  </si>
+  <si>
+    <t>l-waite@uchicago.edu</t>
+  </si>
+  <si>
+    <t>Peggy A. Thoits</t>
+  </si>
+  <si>
+    <t>pthoits@indiana.edu</t>
+  </si>
+  <si>
+    <t>(812) 856-2243</t>
+  </si>
+  <si>
+    <t>Tom Wilson</t>
+  </si>
+  <si>
+    <t>wilson@soc.ucsb.edu</t>
+  </si>
+  <si>
+    <t>Lowell Hargens</t>
+  </si>
+  <si>
+    <t>hargens@uw.edu</t>
+  </si>
+  <si>
+    <t>Savery 232</t>
+  </si>
+  <si>
+    <t>Beth Mintz</t>
+  </si>
+  <si>
+    <t>Beth.Mintz@uvm.edu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(802) 656-2163 </t>
+  </si>
+  <si>
+    <t>on leave apparently</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Room 204</t>
+  </si>
+  <si>
+    <t>Ryan A. Smith</t>
+  </si>
+  <si>
+    <t>rasassoc01@aol.com</t>
+  </si>
+  <si>
+    <t>Rutgers?? Baruch College?? But gone now</t>
+  </si>
+  <si>
+    <t>https://www.jstor.org/stable/3069251</t>
+  </si>
+  <si>
+    <t>Robert O’Brien</t>
+  </si>
+  <si>
+    <t>bobrien@uoregon.edu</t>
+  </si>
+  <si>
+    <t>(541) 346-5014</t>
+  </si>
+  <si>
+    <t>dhf12@psu.edu</t>
+  </si>
+  <si>
+    <t>Diane Felmlee</t>
+  </si>
+  <si>
+    <t>506 Oswald Tower</t>
+  </si>
+  <si>
+    <t>University Park , PA 16802</t>
+  </si>
+  <si>
+    <t>(814) 863-5509</t>
+  </si>
+  <si>
+    <t>Peter J. Burke</t>
+  </si>
+  <si>
+    <t>University of Cal</t>
+  </si>
+  <si>
+    <t>(951) 827-7004</t>
+  </si>
+  <si>
+    <t>peter.burke@ucr.edu</t>
+  </si>
+  <si>
+    <t>Scott South</t>
+  </si>
+  <si>
+    <t>ssouth@albany.edu</t>
+  </si>
+  <si>
+    <t>518-442-4691</t>
+  </si>
+  <si>
+    <t>Jonathan H. Turner</t>
+  </si>
+  <si>
+    <t>from Cornell!</t>
+  </si>
+  <si>
+    <t>jturner@soc.ucsb.edu</t>
+  </si>
+  <si>
+    <t>(951) 304-3848 (home); 951-440-5183 (Cell)</t>
+  </si>
+  <si>
+    <t>38141 Bear Canyon Drive
+Murrieta, CA 92562
+USA</t>
+  </si>
+  <si>
+    <t>jonathan.turner@ucr.edu</t>
+  </si>
+  <si>
+    <t>john.goldthorpe@nuffield.ox.ac.uk</t>
+  </si>
+  <si>
+    <t>John Goldthorpe</t>
+  </si>
+  <si>
+    <t>+44(0)1865 278559</t>
+  </si>
+  <si>
+    <t>Charlie_Tolbert@Baylor.edu</t>
+  </si>
+  <si>
+    <t>Charles Tolbert</t>
+  </si>
+  <si>
+    <t>Office: (254) 710-6060; Home: (254) 399-9741</t>
+  </si>
+  <si>
+    <t>John Zipp</t>
+  </si>
+  <si>
+    <t>jzipp@uakron.edu</t>
+  </si>
+  <si>
+    <t>University of Akron</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -836,6 +1003,22 @@
       <color theme="10"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="TimesNewRomanPSMT"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0563C1"/>
+      <name val="TimesNewRomanPSMT"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -851,7 +1034,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -1114,12 +1297,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1236,6 +1430,26 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2397,10 +2611,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z46"/>
+  <dimension ref="A1:Z61"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="I19" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="G7" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
@@ -4452,6 +4669,292 @@
       <c r="Y46" s="6"/>
       <c r="Z46" s="6"/>
     </row>
+    <row r="47" spans="1:26" ht="15" customHeight="1">
+      <c r="A47" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B47" s="7">
+        <v>3</v>
+      </c>
+      <c r="C47" s="46" t="s">
+        <v>207</v>
+      </c>
+      <c r="I47" t="s">
+        <v>208</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="N47" s="47" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="48" spans="1:26" ht="15" customHeight="1">
+      <c r="A48" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B48" s="7">
+        <v>3</v>
+      </c>
+      <c r="C48" s="46" t="s">
+        <v>212</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="J48" t="s">
+        <v>213</v>
+      </c>
+      <c r="N48" s="48" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" ht="15" customHeight="1">
+      <c r="A49" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B49" s="7">
+        <v>3</v>
+      </c>
+      <c r="C49" s="46" t="s">
+        <v>215</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="N49" s="48" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" ht="15" customHeight="1">
+      <c r="A50" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B50" s="7">
+        <v>3</v>
+      </c>
+      <c r="C50" s="46" t="s">
+        <v>218</v>
+      </c>
+      <c r="N50" s="48" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" ht="15" customHeight="1">
+      <c r="A51" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B51" s="7">
+        <v>3</v>
+      </c>
+      <c r="C51" s="46" t="s">
+        <v>220</v>
+      </c>
+      <c r="I51" t="s">
+        <v>222</v>
+      </c>
+      <c r="N51" s="48" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" ht="15" customHeight="1">
+      <c r="A52" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B52" s="7">
+        <v>3</v>
+      </c>
+      <c r="C52" s="46" t="s">
+        <v>223</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="J52" s="49" t="s">
+        <v>225</v>
+      </c>
+      <c r="N52" s="48" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" ht="15" customHeight="1">
+      <c r="A53" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B53" s="7">
+        <v>3</v>
+      </c>
+      <c r="C53" s="46" t="s">
+        <v>228</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="N53" s="48" t="s">
+        <v>229</v>
+      </c>
+      <c r="O53" s="48"/>
+    </row>
+    <row r="54" spans="1:15" ht="15" customHeight="1">
+      <c r="A54" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B54" s="7">
+        <v>3</v>
+      </c>
+      <c r="C54" s="46" t="s">
+        <v>232</v>
+      </c>
+      <c r="J54" t="s">
+        <v>234</v>
+      </c>
+      <c r="N54" s="50" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" ht="15" customHeight="1">
+      <c r="A55" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B55" s="7">
+        <v>3</v>
+      </c>
+      <c r="C55" s="46" t="s">
+        <v>236</v>
+      </c>
+      <c r="I55" t="s">
+        <v>237</v>
+      </c>
+      <c r="J55" t="s">
+        <v>239</v>
+      </c>
+      <c r="L55" t="s">
+        <v>238</v>
+      </c>
+      <c r="N55" s="48" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" ht="15" customHeight="1">
+      <c r="A56" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B56" s="7">
+        <v>3</v>
+      </c>
+      <c r="C56" s="46" t="s">
+        <v>240</v>
+      </c>
+      <c r="J56" t="s">
+        <v>242</v>
+      </c>
+      <c r="K56" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="N56" s="48" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" ht="15" customHeight="1">
+      <c r="A57" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B57" s="7">
+        <v>3</v>
+      </c>
+      <c r="C57" s="46" t="s">
+        <v>244</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="N57" s="48" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" ht="15" customHeight="1">
+      <c r="A58" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B58" s="7">
+        <v>3</v>
+      </c>
+      <c r="C58" s="46" t="s">
+        <v>247</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="J58" s="51" t="s">
+        <v>250</v>
+      </c>
+      <c r="M58" s="52" t="s">
+        <v>251</v>
+      </c>
+      <c r="N58" s="50" t="s">
+        <v>249</v>
+      </c>
+      <c r="O58" s="53" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" ht="15" customHeight="1">
+      <c r="A59" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B59" s="7">
+        <v>3</v>
+      </c>
+      <c r="C59" s="46" t="s">
+        <v>254</v>
+      </c>
+      <c r="J59" s="55" t="s">
+        <v>255</v>
+      </c>
+      <c r="N59" s="48" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" ht="15" customHeight="1">
+      <c r="A60" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B60" s="7">
+        <v>3</v>
+      </c>
+      <c r="C60" s="46" t="s">
+        <v>257</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="N60" s="48" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" ht="15" customHeight="1">
+      <c r="A61" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B61" s="7">
+        <v>3</v>
+      </c>
+      <c r="C61" s="46" t="s">
+        <v>259</v>
+      </c>
+      <c r="K61" s="54" t="s">
+        <v>261</v>
+      </c>
+      <c r="N61" s="50" t="s">
+        <v>260</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="O2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -4477,9 +4980,24 @@
     <hyperlink ref="N3" r:id="rId21" xr:uid="{DCD652A8-D4C8-4370-8BE3-5CA847CE5A7D}"/>
     <hyperlink ref="P14" r:id="rId22" xr:uid="{3BC0068B-E8B0-436D-AC4E-7421AECA0363}"/>
     <hyperlink ref="N20" r:id="rId23" xr:uid="{1EADC380-A161-4946-B48F-41141BF5CFCB}"/>
+    <hyperlink ref="N47" r:id="rId24" xr:uid="{EE9BC5CE-AD0D-4858-87EA-3A4EF148D430}"/>
+    <hyperlink ref="N48" r:id="rId25" xr:uid="{09A9DBAE-9BED-412B-8AAF-D8860F7DB6B1}"/>
+    <hyperlink ref="N49" r:id="rId26" xr:uid="{5FBF6795-F54E-4C8C-9E8C-0800EB6043A4}"/>
+    <hyperlink ref="N50" r:id="rId27" xr:uid="{75B2B0D0-3429-44CB-A8DF-9E70B80F69B0}"/>
+    <hyperlink ref="N51" r:id="rId28" xr:uid="{0595370A-93FE-4EFC-ABE4-0AE18CA8D04F}"/>
+    <hyperlink ref="N52" r:id="rId29" xr:uid="{914A722A-69F9-4749-9D95-7332B11D4BF8}"/>
+    <hyperlink ref="N53" r:id="rId30" xr:uid="{884EDA0B-A0A1-4137-9236-6CF4093FD068}"/>
+    <hyperlink ref="N54" r:id="rId31" display="mailto:bobrien@uoregon.edu" xr:uid="{B444482B-E385-4766-AAAC-7D4EBECF7147}"/>
+    <hyperlink ref="N55" r:id="rId32" xr:uid="{A8BDB728-0B11-4DC6-A388-D4C1D2941C77}"/>
+    <hyperlink ref="N56" r:id="rId33" xr:uid="{E56E39B6-27CF-466C-9D9B-6E7A9C3A7487}"/>
+    <hyperlink ref="N57" r:id="rId34" xr:uid="{36147740-05D6-4DAB-A6AD-AEA5B7DECEA0}"/>
+    <hyperlink ref="N58" r:id="rId35" display="mailto:jturner@soc.ucsb.edu" xr:uid="{FE205B4D-7DAE-488D-88A6-6D4B3F4CDFF4}"/>
+    <hyperlink ref="N59" r:id="rId36" xr:uid="{3A7C4E84-F3DA-44CB-9BA8-FE6DA19A9BA9}"/>
+    <hyperlink ref="N60" r:id="rId37" xr:uid="{3B71AEAF-6347-4AAF-914E-40514AD10CF3}"/>
+    <hyperlink ref="N61" r:id="rId38" display="mailto:jzipp@uakron.edu" xr:uid="{606F7F3C-357D-4515-9BD1-9693A76D4225}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId39"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
